--- a/src/experiments/results/policy_maker_model.xlsx
+++ b/src/experiments/results/policy_maker_model.xlsx
@@ -1341,23 +1341,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POINT (7.057434467006125 49.13944370107096)</t>
+          <t>POINT (6.968672766517466 49.23376381394193)</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>10041</v>
       </c>
       <c r="C30" t="n">
-        <v>104577467</v>
+        <v>252319913</v>
       </c>
       <c r="D30" t="n">
         <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>49.13944370107096</v>
+        <v>49.23376381394193</v>
       </c>
       <c r="F30" t="n">
-        <v>7.057434467006125</v>
+        <v>6.968672766517466</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1368,23 +1368,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POINT (6.4646045016572895 49.5291224674847)</t>
+          <t>POINT (7.057794667313617 49.320018361166255)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10042</v>
+        <v>10041</v>
       </c>
       <c r="C31" t="n">
-        <v>262119883</v>
+        <v>698846960</v>
       </c>
       <c r="D31" t="n">
         <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>49.5291224674847</v>
+        <v>49.32001836116626</v>
       </c>
       <c r="F31" t="n">
-        <v>6.46460450165729</v>
+        <v>7.057794667313617</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1395,23 +1395,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POINT (6.686019157373011 49.49891003177803)</t>
+          <t>POINT (6.446744142481315 49.51812201000738)</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>10042</v>
       </c>
       <c r="C32" t="n">
-        <v>8845795586</v>
+        <v>261740906</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>49.49891003177803</v>
+        <v>49.51812201000738</v>
       </c>
       <c r="F32" t="n">
-        <v>6.686019157373011</v>
+        <v>6.446744142481315</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1422,23 +1422,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POINT (6.970558501945076 49.32090066924721)</t>
+          <t>POINT (6.773720319111775 49.534029797463674)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10043</v>
+        <v>10042</v>
       </c>
       <c r="C33" t="n">
-        <v>1520262802</v>
+        <v>316253421</v>
       </c>
       <c r="D33" t="n">
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>49.32090066924721</v>
+        <v>49.53402979746367</v>
       </c>
       <c r="F33" t="n">
-        <v>6.970558501945076</v>
+        <v>6.773720319111775</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1449,23 +1449,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>POINT (6.605988492970522 49.31442596560456)</t>
+          <t>POINT (6.784165134154136 49.47310911352534)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10044</v>
+        <v>10042</v>
       </c>
       <c r="C34" t="n">
-        <v>952352476</v>
+        <v>323727276</v>
       </c>
       <c r="D34" t="n">
         <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>49.31442596560456</v>
+        <v>49.47310911352534</v>
       </c>
       <c r="F34" t="n">
-        <v>6.605988492970522</v>
+        <v>6.784165134154136</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1476,23 +1476,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>POINT (7.252354991199539 49.22606668282353)</t>
+          <t>POINT (6.884531786009908 49.60210042480619)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10045</v>
+        <v>10042</v>
       </c>
       <c r="C35" t="n">
-        <v>445353525</v>
+        <v>481057108</v>
       </c>
       <c r="D35" t="n">
         <v>20</v>
       </c>
       <c r="E35" t="n">
-        <v>49.22606668282353</v>
+        <v>49.60210042480619</v>
       </c>
       <c r="F35" t="n">
-        <v>7.252354991199539</v>
+        <v>6.884531786009908</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POINT (7.25520817897683 49.287900347275745)</t>
+          <t>POINT (7.015709291683912 49.35501803983004)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10045</v>
+        <v>10043</v>
       </c>
       <c r="C36" t="n">
-        <v>348442870</v>
+        <v>1519388500</v>
       </c>
       <c r="D36" t="n">
         <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>49.28790034727574</v>
+        <v>49.35501803983004</v>
       </c>
       <c r="F36" t="n">
-        <v>7.25520817897683</v>
+        <v>7.015709291683912</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1530,23 +1530,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POINT (7.101355626134021 49.520239209593456)</t>
+          <t>POINT (7.386615193920012 49.356149122463655)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10046</v>
+        <v>10045</v>
       </c>
       <c r="C37" t="n">
-        <v>380377210</v>
+        <v>11802596569</v>
       </c>
       <c r="D37" t="n">
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>49.52023920959346</v>
+        <v>49.35614912246366</v>
       </c>
       <c r="F37" t="n">
-        <v>7.101355626134021</v>
+        <v>7.386615193920012</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1557,23 +1557,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POINT (7.134194197713914 49.5518022169839)</t>
+          <t>POINT (7.350777489274446 49.37248449372082)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10046</v>
+        <v>10045</v>
       </c>
       <c r="C38" t="n">
-        <v>355691428</v>
+        <v>500638</v>
       </c>
       <c r="D38" t="n">
         <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>49.5518022169839</v>
+        <v>49.37248449372082</v>
       </c>
       <c r="F38" t="n">
-        <v>7.134194197713914</v>
+        <v>7.350777489274446</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1584,23 +1584,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POINT (7.152692101707754 49.507066180420026)</t>
+          <t>POINT (7.11468832097552 49.51939194606232)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>10046</v>
       </c>
       <c r="C39" t="n">
-        <v>299976293</v>
+        <v>380412932</v>
       </c>
       <c r="D39" t="n">
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>49.50706618042003</v>
+        <v>49.51939194606232</v>
       </c>
       <c r="F39" t="n">
-        <v>7.152692101707754</v>
+        <v>7.11468832097552</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>

--- a/src/experiments/results/policy_maker_model.xlsx
+++ b/src/experiments/results/policy_maker_model.xlsx
@@ -1341,23 +1341,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POINT (6.968672766517466 49.23376381394193)</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>10041</v>
-      </c>
-      <c r="C30" t="n">
-        <v>252319913</v>
+          <t>POINT (6.883386927967124 49.32609459126603)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>k1</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E30" t="n">
-        <v>49.23376381394193</v>
+        <v>49.32609459126603</v>
       </c>
       <c r="F30" t="n">
-        <v>6.968672766517466</v>
+        <v>6.883386927967124</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1368,23 +1372,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POINT (7.057794667313617 49.320018361166255)</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>10041</v>
-      </c>
-      <c r="C31" t="n">
-        <v>698846960</v>
+          <t>POINT (6.929470619593767 49.26812930661734)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10041</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>k2</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="E31" t="n">
-        <v>49.32001836116626</v>
+        <v>49.26812930661734</v>
       </c>
       <c r="F31" t="n">
-        <v>7.057794667313617</v>
+        <v>6.929470619593767</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1395,23 +1403,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POINT (6.446744142481315 49.51812201000738)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>10042</v>
-      </c>
-      <c r="C32" t="n">
-        <v>261740906</v>
+          <t>POINT (7.0052792732884495 49.33767769818895)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10041</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>k3</t>
+        </is>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E32" t="n">
-        <v>49.51812201000738</v>
+        <v>49.33767769818895</v>
       </c>
       <c r="F32" t="n">
-        <v>6.446744142481315</v>
+        <v>7.005279273288449</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1422,23 +1434,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POINT (6.773720319111775 49.534029797463674)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>10042</v>
-      </c>
-      <c r="C33" t="n">
-        <v>316253421</v>
+          <t>POINT (6.969039089909684 49.313488848317625)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10041</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>k4</t>
+        </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="E33" t="n">
-        <v>49.53402979746367</v>
+        <v>49.31348884831763</v>
       </c>
       <c r="F33" t="n">
-        <v>6.773720319111775</v>
+        <v>6.969039089909684</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1449,23 +1465,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>POINT (6.784165134154136 49.47310911352534)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>10042</v>
-      </c>
-      <c r="C34" t="n">
-        <v>323727276</v>
+          <t>POINT (6.822620825380222 49.356667693330564)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10044</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>k5</t>
+        </is>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="E34" t="n">
-        <v>49.47310911352534</v>
+        <v>49.35666769333056</v>
       </c>
       <c r="F34" t="n">
-        <v>6.784165134154136</v>
+        <v>6.822620825380222</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1476,23 +1496,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>POINT (6.884531786009908 49.60210042480619)</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>10042</v>
-      </c>
-      <c r="C35" t="n">
-        <v>481057108</v>
+          <t>POINT (6.904224529034402 49.442089494827975)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10044</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>k6</t>
+        </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="E35" t="n">
-        <v>49.60210042480619</v>
+        <v>49.44208949482798</v>
       </c>
       <c r="F35" t="n">
-        <v>6.884531786009908</v>
+        <v>6.904224529034402</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1503,23 +1527,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POINT (7.015709291683912 49.35501803983004)</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>10043</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1519388500</v>
+          <t>POINT (7.254802349951703 49.35110759463989)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>k7</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="E36" t="n">
-        <v>49.35501803983004</v>
+        <v>49.35110759463989</v>
       </c>
       <c r="F36" t="n">
-        <v>7.015709291683912</v>
+        <v>7.254802349951703</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1530,23 +1558,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POINT (7.386615193920012 49.356149122463655)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>10045</v>
-      </c>
-      <c r="C37" t="n">
-        <v>11802596569</v>
+          <t>POINT (7.280034712412421 49.3762045599062)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>k8</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="E37" t="n">
-        <v>49.35614912246366</v>
+        <v>49.3762045599062</v>
       </c>
       <c r="F37" t="n">
-        <v>7.386615193920012</v>
+        <v>7.280034712412421</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1557,23 +1589,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POINT (7.350777489274446 49.37248449372082)</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>10045</v>
-      </c>
-      <c r="C38" t="n">
-        <v>500638</v>
+          <t>POINT (7.172516962777409 49.40973615864516)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>10043</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>k9</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E38" t="n">
-        <v>49.37248449372082</v>
+        <v>49.40973615864516</v>
       </c>
       <c r="F38" t="n">
-        <v>7.350777489274446</v>
+        <v>7.172516962777409</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1584,23 +1620,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POINT (7.11468832097552 49.51939194606232)</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>10046</v>
-      </c>
-      <c r="C39" t="n">
-        <v>380412932</v>
+          <t>POINT (7.213364346793378 49.397189812221946)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10043</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>k10</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E39" t="n">
-        <v>49.51939194606232</v>
+        <v>49.39718981222195</v>
       </c>
       <c r="F39" t="n">
-        <v>7.11468832097552</v>
+        <v>7.213364346793378</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
